--- a/Tables/Table S6.xlsx
+++ b/Tables/Table S6.xlsx
@@ -55,7 +55,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi6i1Bnwy6oUo8Coj94GBf/9HqweA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgAVA4sIINe3SHF+v/8cmeVEtdgMw=="/>
     </ext>
   </extLst>
 </comments>
@@ -64,7 +64,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="78">
   <si>
-    <t xml:space="preserve">Table S5: Average methylation in promotor, gene body, ´3 regulatory region and repeated elements. </t>
+    <t xml:space="preserve">Table S6: Average methylation in promotor, gene body, ´3 regulatory region, repeated elements and psuedogenes. </t>
   </si>
   <si>
     <t xml:space="preserve">Table showing the avarage methylation and statistical analysis in the different genic elements and in repeated elements. </t>
